--- a/JupyterNotebooks/AveragedIntensites/Gamma2F-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/Gamma2F-HW15.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Gamma2F-HW15.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="Gamma2F" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>HKL</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -949,7 +949,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9963614538049352</v>
+        <v>0.9963614538049353</v>
       </c>
       <c r="D13">
         <v>0.9918648221862459</v>
@@ -958,7 +958,7 @@
         <v>0.9904071477646423</v>
       </c>
       <c r="F13">
-        <v>0.9963614538049352</v>
+        <v>0.9963614538049353</v>
       </c>
       <c r="G13">
         <v>0.9881313182795766</v>
@@ -1062,6 +1062,47 @@
       </c>
       <c r="M15">
         <v>1.001228094140871</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.363972170137047</v>
+      </c>
+      <c r="D16">
+        <v>0.3837816257825609</v>
+      </c>
+      <c r="E16">
+        <v>1.050433605735367</v>
+      </c>
+      <c r="F16">
+        <v>1.363972170137047</v>
+      </c>
+      <c r="G16">
+        <v>0.6828040584107109</v>
+      </c>
+      <c r="H16">
+        <v>1.133475496403593</v>
+      </c>
+      <c r="I16">
+        <v>1.133176527350012</v>
+      </c>
+      <c r="J16">
+        <v>0.3837816257825609</v>
+      </c>
+      <c r="K16">
+        <v>0.717107615758964</v>
+      </c>
+      <c r="L16">
+        <v>1.040539892948006</v>
+      </c>
+      <c r="M16">
+        <v>0.9579405806365485</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AveragedIntensites/Gamma2F-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/Gamma2F-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -498,37 +501,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1069,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.363972170137047</v>

--- a/JupyterNotebooks/AveragedIntensites/Gamma2F-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/Gamma2F-HW15.xlsx
@@ -952,7 +952,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9963614538049353</v>
+        <v>0.9963614538049352</v>
       </c>
       <c r="D13">
         <v>0.9918648221862459</v>
@@ -961,7 +961,7 @@
         <v>0.9904071477646423</v>
       </c>
       <c r="F13">
-        <v>0.9963614538049353</v>
+        <v>0.9963614538049352</v>
       </c>
       <c r="G13">
         <v>0.9881313182795766</v>

--- a/JupyterNotebooks/AveragedIntensites/Gamma2F-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/Gamma2F-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -449,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,37 +510,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -829,37 +838,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.5093640000000001</v>
+        <v>1.363972170137047</v>
       </c>
       <c r="D10">
-        <v>0.2474880000000001</v>
+        <v>0.3837816257825609</v>
       </c>
       <c r="E10">
-        <v>1.347508000000001</v>
+        <v>1.050433605735367</v>
       </c>
       <c r="F10">
-        <v>0.5093640000000001</v>
+        <v>1.363972170137047</v>
       </c>
       <c r="G10">
-        <v>0.439204</v>
+        <v>0.6828040584107109</v>
       </c>
       <c r="H10">
-        <v>3.261040000000006</v>
+        <v>1.133475496403593</v>
       </c>
       <c r="I10">
-        <v>1.166916</v>
+        <v>1.133176527350012</v>
       </c>
       <c r="J10">
-        <v>0.2474880000000001</v>
+        <v>0.3837816257825609</v>
       </c>
       <c r="K10">
-        <v>0.7974980000000004</v>
+        <v>0.717107615758964</v>
       </c>
       <c r="L10">
-        <v>0.6534310000000002</v>
+        <v>1.040539892948006</v>
       </c>
       <c r="M10">
-        <v>1.161920000000001</v>
+        <v>0.9579405806365485</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -870,37 +879,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.21</v>
+        <v>1.17724958549151</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.4610126382763439</v>
       </c>
       <c r="E11">
-        <v>1.553600000000001</v>
+        <v>1.022395423802949</v>
       </c>
       <c r="F11">
-        <v>0.21</v>
+        <v>1.17724958549151</v>
       </c>
       <c r="G11">
-        <v>0.01</v>
+        <v>0.8914036606228333</v>
       </c>
       <c r="H11">
-        <v>5.088062500000001</v>
+        <v>0.8926078569125404</v>
       </c>
       <c r="I11">
-        <v>1.27</v>
+        <v>1.068184896857687</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.4610126382763439</v>
       </c>
       <c r="K11">
-        <v>0.7768000000000006</v>
+        <v>0.7417040310396463</v>
       </c>
       <c r="L11">
-        <v>0.4934000000000003</v>
+        <v>0.9594768082655782</v>
       </c>
       <c r="M11">
-        <v>1.355277083333334</v>
+        <v>0.9188090103273107</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -911,37 +920,37 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.550756489011201</v>
+        <v>1.17197013134176</v>
       </c>
       <c r="D12">
-        <v>0.4137589913600009</v>
+        <v>0.4619300435693042</v>
       </c>
       <c r="E12">
-        <v>1.328887554662403</v>
+        <v>1.024057898114124</v>
       </c>
       <c r="F12">
-        <v>0.550756489011201</v>
+        <v>1.17197013134176</v>
       </c>
       <c r="G12">
-        <v>0.4147497899008004</v>
+        <v>0.8924799158639082</v>
       </c>
       <c r="H12">
-        <v>3.309112145203202</v>
+        <v>0.8930742401140037</v>
       </c>
       <c r="I12">
-        <v>1.155422443929599</v>
+        <v>1.068063741290045</v>
       </c>
       <c r="J12">
-        <v>0.4137589913600009</v>
+        <v>0.4619300435693042</v>
       </c>
       <c r="K12">
-        <v>0.8713232730112019</v>
+        <v>0.7429939708417144</v>
       </c>
       <c r="L12">
-        <v>0.7110398810112015</v>
+        <v>0.9574820510917372</v>
       </c>
       <c r="M12">
-        <v>1.195447902344534</v>
+        <v>0.9185959950488577</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -952,37 +961,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9963614538049352</v>
+        <v>1.17687957816677</v>
       </c>
       <c r="D13">
-        <v>0.9918648221862459</v>
+        <v>0.4609012309710387</v>
       </c>
       <c r="E13">
-        <v>0.9904071477646423</v>
+        <v>1.022863514736807</v>
       </c>
       <c r="F13">
-        <v>0.9963614538049352</v>
+        <v>1.17687957816677</v>
       </c>
       <c r="G13">
-        <v>0.9881313182795766</v>
+        <v>0.8913523941060147</v>
       </c>
       <c r="H13">
-        <v>0.9938400024803613</v>
+        <v>0.891445048164721</v>
       </c>
       <c r="I13">
-        <v>0.9924778540826535</v>
+        <v>1.068198378089818</v>
       </c>
       <c r="J13">
-        <v>0.9918648221862459</v>
+        <v>0.4609012309710387</v>
       </c>
       <c r="K13">
-        <v>0.9911359849754442</v>
+        <v>0.7418823728539231</v>
       </c>
       <c r="L13">
-        <v>0.9937487193901897</v>
+        <v>0.9593809755103467</v>
       </c>
       <c r="M13">
-        <v>0.9921804330997358</v>
+        <v>0.9186066907058618</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -993,37 +1002,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.8267373010556451</v>
+        <v>0.5093640000000001</v>
       </c>
       <c r="D14">
-        <v>1.077748671679849</v>
+        <v>0.2474880000000001</v>
       </c>
       <c r="E14">
-        <v>1.054484171019363</v>
+        <v>1.347508000000001</v>
       </c>
       <c r="F14">
-        <v>0.8267373010556451</v>
+        <v>0.5093640000000001</v>
       </c>
       <c r="G14">
-        <v>1.032228367423267</v>
+        <v>0.439204</v>
       </c>
       <c r="H14">
-        <v>1.043375308888118</v>
+        <v>3.261040000000006</v>
       </c>
       <c r="I14">
-        <v>0.9859133800239479</v>
+        <v>1.166916</v>
       </c>
       <c r="J14">
-        <v>1.077748671679849</v>
+        <v>0.2474880000000001</v>
       </c>
       <c r="K14">
-        <v>1.066116421349606</v>
+        <v>0.7974980000000004</v>
       </c>
       <c r="L14">
-        <v>0.9464268612026254</v>
+        <v>0.6534310000000002</v>
       </c>
       <c r="M14">
-        <v>1.003414533348365</v>
+        <v>1.161920000000001</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1034,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9765734027929517</v>
+        <v>0.21</v>
       </c>
       <c r="D15">
-        <v>1.267288801908088</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0.921195252922541</v>
+        <v>1.553600000000001</v>
       </c>
       <c r="F15">
-        <v>0.9765734027929517</v>
+        <v>0.21</v>
       </c>
       <c r="G15">
-        <v>1.112919143239536</v>
+        <v>0.01</v>
       </c>
       <c r="H15">
-        <v>0.8004382671291717</v>
+        <v>5.088062500000001</v>
       </c>
       <c r="I15">
-        <v>0.9289536968529368</v>
+        <v>1.27</v>
       </c>
       <c r="J15">
-        <v>1.267288801908088</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1.094242027415315</v>
+        <v>0.7768000000000006</v>
       </c>
       <c r="L15">
-        <v>1.035407715104133</v>
+        <v>0.4934000000000003</v>
       </c>
       <c r="M15">
-        <v>1.001228094140871</v>
+        <v>1.355277083333334</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1075,37 +1084,160 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.363972170137047</v>
+        <v>0.550756489011201</v>
       </c>
       <c r="D16">
-        <v>0.3837816257825609</v>
+        <v>0.4137589913600009</v>
       </c>
       <c r="E16">
-        <v>1.050433605735367</v>
+        <v>1.328887554662403</v>
       </c>
       <c r="F16">
-        <v>1.363972170137047</v>
+        <v>0.550756489011201</v>
       </c>
       <c r="G16">
-        <v>0.6828040584107109</v>
+        <v>0.4147497899008004</v>
       </c>
       <c r="H16">
-        <v>1.133475496403593</v>
+        <v>3.309112145203202</v>
       </c>
       <c r="I16">
-        <v>1.133176527350012</v>
+        <v>1.155422443929599</v>
       </c>
       <c r="J16">
-        <v>0.3837816257825609</v>
+        <v>0.4137589913600009</v>
       </c>
       <c r="K16">
-        <v>0.717107615758964</v>
+        <v>0.8713232730112019</v>
       </c>
       <c r="L16">
-        <v>1.040539892948006</v>
+        <v>0.7110398810112015</v>
       </c>
       <c r="M16">
-        <v>0.9579405806365485</v>
+        <v>1.195447902344534</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9963614538049353</v>
+      </c>
+      <c r="D17">
+        <v>0.9918648221862459</v>
+      </c>
+      <c r="E17">
+        <v>0.9904071477646423</v>
+      </c>
+      <c r="F17">
+        <v>0.9963614538049353</v>
+      </c>
+      <c r="G17">
+        <v>0.9881313182795766</v>
+      </c>
+      <c r="H17">
+        <v>0.9938400024803613</v>
+      </c>
+      <c r="I17">
+        <v>0.9924778540826535</v>
+      </c>
+      <c r="J17">
+        <v>0.9918648221862459</v>
+      </c>
+      <c r="K17">
+        <v>0.9911359849754442</v>
+      </c>
+      <c r="L17">
+        <v>0.9937487193901897</v>
+      </c>
+      <c r="M17">
+        <v>0.9921804330997358</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.8267373010556451</v>
+      </c>
+      <c r="D18">
+        <v>1.077748671679849</v>
+      </c>
+      <c r="E18">
+        <v>1.054484171019363</v>
+      </c>
+      <c r="F18">
+        <v>0.8267373010556451</v>
+      </c>
+      <c r="G18">
+        <v>1.032228367423267</v>
+      </c>
+      <c r="H18">
+        <v>1.043375308888118</v>
+      </c>
+      <c r="I18">
+        <v>0.9859133800239479</v>
+      </c>
+      <c r="J18">
+        <v>1.077748671679849</v>
+      </c>
+      <c r="K18">
+        <v>1.066116421349606</v>
+      </c>
+      <c r="L18">
+        <v>0.9464268612026254</v>
+      </c>
+      <c r="M18">
+        <v>1.003414533348365</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9765734027929517</v>
+      </c>
+      <c r="D19">
+        <v>1.267288801908088</v>
+      </c>
+      <c r="E19">
+        <v>0.921195252922541</v>
+      </c>
+      <c r="F19">
+        <v>0.9765734027929517</v>
+      </c>
+      <c r="G19">
+        <v>1.112919143239536</v>
+      </c>
+      <c r="H19">
+        <v>0.8004382671291717</v>
+      </c>
+      <c r="I19">
+        <v>0.9289536968529368</v>
+      </c>
+      <c r="J19">
+        <v>1.267288801908088</v>
+      </c>
+      <c r="K19">
+        <v>1.094242027415315</v>
+      </c>
+      <c r="L19">
+        <v>1.035407715104133</v>
+      </c>
+      <c r="M19">
+        <v>1.001228094140871</v>
       </c>
     </row>
   </sheetData>
